--- a/fuentes/contenidos/grado10/guion09/ESCALETA_FINAL_CN_10_09.xlsx
+++ b/fuentes/contenidos/grado10/guion09/ESCALETA_FINAL_CN_10_09.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -972,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1035,16 +1030,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,24 +1102,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1168,7 +1164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,7 +1199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,9 +1410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,94 +1440,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1623,7 +1619,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1786,7 +1782,7 @@
       <c r="N7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" t="s">
         <v>192</v>
       </c>
       <c r="P7" s="9" t="s">
@@ -1965,7 +1961,7 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="54" t="s">
         <v>191</v>
       </c>
       <c r="P10" s="9" t="s">
@@ -2473,7 +2469,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2514,7 +2510,7 @@
       <c r="N21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="54" t="s">
         <v>194</v>
       </c>
       <c r="P21" s="9" t="s">
@@ -2713,7 +2709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2752,7 +2748,7 @@
       <c r="N25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="28" t="s">
+      <c r="O25" s="54" t="s">
         <v>202</v>
       </c>
       <c r="P25" s="9" t="s">
@@ -2868,7 +2864,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -2909,7 +2905,7 @@
       <c r="N28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="54" t="s">
         <v>210</v>
       </c>
       <c r="P28" s="9" t="s">
@@ -4707,16 +4703,7 @@
     <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U36">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4731,16 +4718,21 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O10" r:id="rId1"/>
-    <hyperlink ref="O7" r:id="rId2"/>
+    <hyperlink ref="O21" r:id="rId2"/>
     <hyperlink ref="O25" r:id="rId3"/>
     <hyperlink ref="O28" r:id="rId4"/>
-    <hyperlink ref="O21" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
